--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -30,7 +30,7 @@
     <t>Classed should be open for extension but closed for modifycation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Decorators can result in many small objects in our design, and overuse can be complex.fdsf</t>
+    <t xml:space="preserve"> Decorators can result in many small objects in our design, and overuse can be complex.fdsf 123</t>
   </si>
 </sst>
 </file>

--- a/Workbook1.xlsx
+++ b/Workbook1.xlsx
@@ -30,7 +30,7 @@
     <t>Classed should be open for extension but closed for modifycation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Decorators can result in many small objects in our design, and overuse can be complex.fdsf 123</t>
+    <t xml:space="preserve"> Decorators can result in many small objects in our design, and overuse can be complex.fdsf 123fsdfdsffsfsd</t>
   </si>
 </sst>
 </file>
